--- a/biology/Médecine/Prix_Louis-Jeantet_pour_la_Médecine/Prix_Louis-Jeantet_pour_la_Médecine.xlsx
+++ b/biology/Médecine/Prix_Louis-Jeantet_pour_la_Médecine/Prix_Louis-Jeantet_pour_la_Médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Prix_Louis-Jeantet_pour_la_M%C3%A9decine</t>
+          <t>Prix_Louis-Jeantet_pour_la_Médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Inaugurés en 1986, les prix Louis-Jeantet sont décernés chaque année par la Fondation Louis-Jeantet à des chercheurs expérimentés s'étant démarqués dans le domaine de la recherche biomédicale, dans un des états membres du Conseil de l'Europe. Leur but n'est pas uniquement de reconnaître le travail de recherche accompli, mais d'encourager de nouveaux projets novateurs et le progrès dans le domaine. Les prix sont décernés à des membres actifs du corps de recherche, dont les efforts scientifiques sont concentrés sur la recherche biomédicale. Lorsque la recherche concernée par un des prix se rapporte de manière plus ou moins spécifiquement à l'application pratique de combat contre une maladie humaine, un des prix Louis-Jeantet est converti en un prix Jeantet-Collen pour la médecine translationnelle, prix soutenus par de généreuses donations de Désiré Collen[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Inaugurés en 1986, les prix Louis-Jeantet sont décernés chaque année par la Fondation Louis-Jeantet à des chercheurs expérimentés s'étant démarqués dans le domaine de la recherche biomédicale, dans un des états membres du Conseil de l'Europe. Leur but n'est pas uniquement de reconnaître le travail de recherche accompli, mais d'encourager de nouveaux projets novateurs et le progrès dans le domaine. Les prix sont décernés à des membres actifs du corps de recherche, dont les efforts scientifiques sont concentrés sur la recherche biomédicale. Lorsque la recherche concernée par un des prix se rapporte de manière plus ou moins spécifiquement à l'application pratique de combat contre une maladie humaine, un des prix Louis-Jeantet est converti en un prix Jeantet-Collen pour la médecine translationnelle, prix soutenus par de généreuses donations de Désiré Collen.
 Les domaines de recherche particuliers dans lesquels les prix ont été décernés sont la physique, la biophysique, la biologie structurale, la biochimie, la biologie cellulaire et moléculaire, la biologie développementale et génétique ; les lauréats ont travaillé dans les domaines de l'immunologie, la virologie, la bactériologie, la neurobiologie, l'épidémiologie clinique et la biochimie structurale.
 Les prix sont dotés de 1,4 million de francs suisses. La somme disponible par lauréat est de 500 000 francs, desquels 450 000 doivent être utilisés à des fins de financement de la recherche. Le solde de 50 000 francs est donné au lauréat à titre personnel.
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Prix_Louis-Jeantet_pour_la_M%C3%A9decine</t>
+          <t>Prix_Louis-Jeantet_pour_la_Médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,9 +525,11 @@
           <t>Lauréats</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Liste des lauréats[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Liste des lauréats :
 1986 : Luc Montagnier, Michael Berridge, Désiré Collen
 1987 : Sydney Brenner, Walter Gehring, Dominique Stehelin
 1988 : Rolf Zinkernagel, John Skehel, Bert Sakmann
@@ -545,14 +559,14 @@
 2012 : Matthias Mann, Fiona Powrie
 2013 : Michael Stratton, Peter Hegemann, Georg Nagel
 2014 : Elena Conti, Denis Le Bihan
-2015 : Emmanuelle Charpentier[3], Rudolf Zechner
+2015 : Emmanuelle Charpentier, Rudolf Zechner
 2016 : Andrea Ballabio, John Diffley
-2017 : Silvia Arber, Caetano Reis e Sousa[4]
+2017 : Silvia Arber, Caetano Reis e Sousa
 2018 : Christer Betsholtz, Antonio Lanzavecchia
 2019 : Luigi Naldini, Botond Roska
 2020 : Erin Schuman, Michele De Luca, Graziella Pellegrini
-2021 : Patrick Cramer[5], Jérôme Galon, Ton Schumacher
-2022 : Carol V. Robinson[6], Uğur Şahin, Özlem Türeci, Katalin Karikó[7],[8]
+2021 : Patrick Cramer, Jérôme Galon, Ton Schumacher
+2022 : Carol V. Robinson, Uğur Şahin, Özlem Türeci, Katalin Karikó,
 2023 : Dario Alessi (en), Ivan Đikić (en), Brenda Schulman (en)</t>
         </is>
       </c>
